--- a/app/1.xlsx
+++ b/app/1.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BA49161-F23A-4D15-BED0-B7650554D4F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D20BA49-9DFD-4136-842D-9C87908705FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -22,23 +27,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>lateYear</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,8 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -73,7 +101,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -369,4935 +397,4945 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A984"/>
+  <dimension ref="A1:D984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A967" workbookViewId="0">
-      <selection sqref="A1:A984"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>62000</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1">
+        <v>2562</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>62001</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>62002</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>62003</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>62004</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>62005</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>62006</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>62007</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>62008</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>62009</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>62010</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>62011</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>62012</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>62013</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>62014</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>62015</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>62016</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>62017</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>62018</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>62019</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>62020</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>62021</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>62022</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>62023</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>62024</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>62025</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>62026</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>62027</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>62028</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>62029</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>62030</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>62031</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>62032</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>62033</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>62034</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>62035</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>62036</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>62037</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>62038</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>62039</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>62040</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>62041</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>62042</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>62043</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>62044</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>62045</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>62046</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>62047</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>62048</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>62049</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>62050</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>62051</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>62052</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>62053</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>62054</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>62055</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>62056</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>62057</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>62058</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>62059</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>62060</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62061</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62062</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62063</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62064</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62065</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>62066</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>62067</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>62068</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>62069</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>62070</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>62071</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>62072</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>62073</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>62074</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>62075</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>62076</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>62077</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>62078</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>62079</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>62080</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>62081</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>62082</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>62083</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>62084</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>62085</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>62086</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>62087</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>62088</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>62089</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>62090</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>62091</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>62092</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>62093</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>62094</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>62095</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>62096</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>62097</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>62098</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>62099</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>62100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>62101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>62102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>62103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>62104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>62105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>62106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>62107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>62108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>62109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>62110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>62111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>62112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>62113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>62114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>62115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>62116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>62117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>62118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>62119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>62120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>62121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>62122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>62123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>62124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>62125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>62126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>62127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>62128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>62129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>62130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>62131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>62132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>62133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>62134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>62135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>62136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>62137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>62138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>62139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>62140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>62141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>62142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>62143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>62144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>62145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>62146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>62147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>62148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>62149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>62150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>62151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>62152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>62153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>62154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>62155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>62156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>62157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>62158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>62159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>62160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>62161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>62162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>62163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>62164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>62165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>62166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>62167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>62168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>62169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>62170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>62171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>62172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>62173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>62174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>62175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>62176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>62177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>62178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>62179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>62180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>62181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>62182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>62183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>62184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>62185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>62186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>62187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>62188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>62189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>62190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>62191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>62192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>62193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>62194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>62195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>62196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>62197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>62198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>62199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>62200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>62201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>62202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>62203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>62204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>62205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>62206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>62207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>62208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>62209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>62210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>62211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>62212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>62213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>62214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>62215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>62216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>62217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>62218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>62219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>62220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>62221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>62222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>62223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>62224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>62225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>62226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>62227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>62228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>62229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>62230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>62231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>62232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>62233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>62234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>62235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>62236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>62237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>62238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>62239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>62240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>62241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>62242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>62243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>62244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>62245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>62246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>62247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>62248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>62249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>62250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>62251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>62252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>62253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>62254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>62255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>62256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>62257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>62258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>62259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>62260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>62261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>62262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>62263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>62264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>62265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>62266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>62267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>62268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>62269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>62270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>62271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>62272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>62273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>62274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>62275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>62276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>62277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>62278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>62279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>62280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>62281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>62282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>62283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>62284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>62285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>62286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>62287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>62288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>62289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>62290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>62291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>62292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>62293</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>62294</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>62295</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>62296</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>62297</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>62298</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>62299</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>62300</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>62301</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>62302</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>62303</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>62304</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>62305</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>62306</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>62307</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>62308</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>62309</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>62310</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>62311</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>62312</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>62313</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>62314</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>62315</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>62316</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>62317</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>62318</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>62319</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>62320</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>62321</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>62322</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>62323</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>62324</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>62325</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>62326</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>62327</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>62328</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>62329</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>62330</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>62331</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>62332</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>62333</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>62334</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>62335</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>62336</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>62337</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>62338</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>62339</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>62340</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>62341</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>62342</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>62343</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>62344</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>62345</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>62346</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>62347</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>62348</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>62349</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>62350</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>62351</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>62352</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>62353</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>62354</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>62355</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>62356</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>62357</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>62358</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>62359</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>62360</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>62361</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>62362</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>62363</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>62364</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>62365</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>62366</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>62367</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>62368</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>62369</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>62370</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>62371</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>62372</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>62373</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>62374</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>62375</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>62376</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>62377</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>62378</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>62379</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>62380</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>62381</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>62382</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>62383</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>62384</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>62385</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>62386</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>62387</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>62388</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>62389</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>62390</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>62391</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>62392</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>62393</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>62394</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>62395</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>62396</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>62397</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>62398</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>62399</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>62400</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>62401</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>62402</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>62403</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>62404</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>62405</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>62406</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>62407</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>62408</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>62409</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>62410</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>62411</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>62412</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>62413</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>62414</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>62415</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>62416</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>62417</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>62418</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>62419</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>62420</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>62421</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>62422</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>62423</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>62424</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>62425</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>62426</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>62427</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>62428</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>62429</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>62430</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>62431</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>62432</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>62433</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>62434</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>62435</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>62436</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>62437</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>62438</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>62439</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>62440</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>62441</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>62442</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>62443</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>62444</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>62445</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>62446</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>62447</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>62448</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>62449</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>62450</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>62451</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>62452</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>62453</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>62454</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>62455</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>62456</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>62457</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>62458</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>62459</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>62460</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>62461</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>62462</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>62463</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>62464</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>62465</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>62466</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>62467</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>62468</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>62469</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>62470</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>62471</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>62472</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>62473</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>62474</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>62475</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>62476</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>62477</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>62478</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>62479</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>62480</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>62481</v>
       </c>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>62482</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>62483</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>62484</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>62485</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>62486</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>62487</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>62488</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>62489</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>62490</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>62491</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>62492</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>62493</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>62494</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>62495</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>62496</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>62497</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>62498</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>62499</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>62500</v>
       </c>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>62501</v>
       </c>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>62502</v>
       </c>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>62503</v>
       </c>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>62504</v>
       </c>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>62505</v>
       </c>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>62506</v>
       </c>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>62507</v>
       </c>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>62508</v>
       </c>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>62509</v>
       </c>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>62510</v>
       </c>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>62511</v>
       </c>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>62512</v>
       </c>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>62513</v>
       </c>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>62514</v>
       </c>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>62515</v>
       </c>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>62516</v>
       </c>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>62517</v>
       </c>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>62518</v>
       </c>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>62519</v>
       </c>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>62520</v>
       </c>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>62521</v>
       </c>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>62522</v>
       </c>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>62523</v>
       </c>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>62524</v>
       </c>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>62525</v>
       </c>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>62526</v>
       </c>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>62527</v>
       </c>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>62528</v>
       </c>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>62529</v>
       </c>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>62530</v>
       </c>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>62531</v>
       </c>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>62532</v>
       </c>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>62533</v>
       </c>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>62534</v>
       </c>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>62535</v>
       </c>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>62536</v>
       </c>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>62537</v>
       </c>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>62538</v>
       </c>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>62539</v>
       </c>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>62540</v>
       </c>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>62541</v>
       </c>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>62542</v>
       </c>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>62543</v>
       </c>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>62544</v>
       </c>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>62545</v>
       </c>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>62546</v>
       </c>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>62547</v>
       </c>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>62548</v>
       </c>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>62549</v>
       </c>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>62550</v>
       </c>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>62551</v>
       </c>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>62552</v>
       </c>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>62553</v>
       </c>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>62554</v>
       </c>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>62555</v>
       </c>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>62556</v>
       </c>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>62557</v>
       </c>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>62558</v>
       </c>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>62559</v>
       </c>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>62560</v>
       </c>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>62561</v>
       </c>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>62562</v>
       </c>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>62563</v>
       </c>
     </row>
-    <row r="565" spans="1:1">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>62564</v>
       </c>
     </row>
-    <row r="566" spans="1:1">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>62565</v>
       </c>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>62566</v>
       </c>
     </row>
-    <row r="568" spans="1:1">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>62567</v>
       </c>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>62568</v>
       </c>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>62569</v>
       </c>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>62570</v>
       </c>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>62571</v>
       </c>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>62572</v>
       </c>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>62573</v>
       </c>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>62574</v>
       </c>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>62575</v>
       </c>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>62576</v>
       </c>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>62577</v>
       </c>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>62578</v>
       </c>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>62579</v>
       </c>
     </row>
-    <row r="581" spans="1:1">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>62580</v>
       </c>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>62581</v>
       </c>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>62582</v>
       </c>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>62583</v>
       </c>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>62584</v>
       </c>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>62585</v>
       </c>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>62586</v>
       </c>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>62587</v>
       </c>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>62588</v>
       </c>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>62589</v>
       </c>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>62590</v>
       </c>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>62591</v>
       </c>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>62592</v>
       </c>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>62593</v>
       </c>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>62594</v>
       </c>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>62595</v>
       </c>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>62596</v>
       </c>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>62597</v>
       </c>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>62598</v>
       </c>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>62599</v>
       </c>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>62600</v>
       </c>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>62601</v>
       </c>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>62602</v>
       </c>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>62603</v>
       </c>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>62604</v>
       </c>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>62605</v>
       </c>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>62606</v>
       </c>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>62607</v>
       </c>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>62608</v>
       </c>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>62609</v>
       </c>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>62610</v>
       </c>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>62611</v>
       </c>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>62612</v>
       </c>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>62613</v>
       </c>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>62614</v>
       </c>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>62615</v>
       </c>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>62616</v>
       </c>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>62617</v>
       </c>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>62618</v>
       </c>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>62619</v>
       </c>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>62620</v>
       </c>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>62621</v>
       </c>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>62622</v>
       </c>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>62623</v>
       </c>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>62624</v>
       </c>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>62625</v>
       </c>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>62626</v>
       </c>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>62627</v>
       </c>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>62628</v>
       </c>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>62629</v>
       </c>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>62630</v>
       </c>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>62631</v>
       </c>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>62632</v>
       </c>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>62633</v>
       </c>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>62634</v>
       </c>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>62635</v>
       </c>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>62636</v>
       </c>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>62637</v>
       </c>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>62638</v>
       </c>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>62639</v>
       </c>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>62640</v>
       </c>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>62641</v>
       </c>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>62642</v>
       </c>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>62643</v>
       </c>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>62644</v>
       </c>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>62645</v>
       </c>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>62646</v>
       </c>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>62647</v>
       </c>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>62648</v>
       </c>
     </row>
-    <row r="650" spans="1:1">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>62649</v>
       </c>
     </row>
-    <row r="651" spans="1:1">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>62650</v>
       </c>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>62651</v>
       </c>
     </row>
-    <row r="653" spans="1:1">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>62652</v>
       </c>
     </row>
-    <row r="654" spans="1:1">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>62653</v>
       </c>
     </row>
-    <row r="655" spans="1:1">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>62654</v>
       </c>
     </row>
-    <row r="656" spans="1:1">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>62655</v>
       </c>
     </row>
-    <row r="657" spans="1:1">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>62656</v>
       </c>
     </row>
-    <row r="658" spans="1:1">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>62657</v>
       </c>
     </row>
-    <row r="659" spans="1:1">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>62658</v>
       </c>
     </row>
-    <row r="660" spans="1:1">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>62659</v>
       </c>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>62660</v>
       </c>
     </row>
-    <row r="662" spans="1:1">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>62661</v>
       </c>
     </row>
-    <row r="663" spans="1:1">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>62662</v>
       </c>
     </row>
-    <row r="664" spans="1:1">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>62663</v>
       </c>
     </row>
-    <row r="665" spans="1:1">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>62664</v>
       </c>
     </row>
-    <row r="666" spans="1:1">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>62665</v>
       </c>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>62666</v>
       </c>
     </row>
-    <row r="668" spans="1:1">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>62667</v>
       </c>
     </row>
-    <row r="669" spans="1:1">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>62668</v>
       </c>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>62669</v>
       </c>
     </row>
-    <row r="671" spans="1:1">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>62670</v>
       </c>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>62671</v>
       </c>
     </row>
-    <row r="673" spans="1:1">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>62672</v>
       </c>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>62673</v>
       </c>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>62674</v>
       </c>
     </row>
-    <row r="676" spans="1:1">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>62675</v>
       </c>
     </row>
-    <row r="677" spans="1:1">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>62676</v>
       </c>
     </row>
-    <row r="678" spans="1:1">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>62677</v>
       </c>
     </row>
-    <row r="679" spans="1:1">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>62678</v>
       </c>
     </row>
-    <row r="680" spans="1:1">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>62679</v>
       </c>
     </row>
-    <row r="681" spans="1:1">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>62680</v>
       </c>
     </row>
-    <row r="682" spans="1:1">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>62681</v>
       </c>
     </row>
-    <row r="683" spans="1:1">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>62682</v>
       </c>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>62683</v>
       </c>
     </row>
-    <row r="685" spans="1:1">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>62684</v>
       </c>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>62685</v>
       </c>
     </row>
-    <row r="687" spans="1:1">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>62686</v>
       </c>
     </row>
-    <row r="688" spans="1:1">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>62687</v>
       </c>
     </row>
-    <row r="689" spans="1:1">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>62688</v>
       </c>
     </row>
-    <row r="690" spans="1:1">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>62689</v>
       </c>
     </row>
-    <row r="691" spans="1:1">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>62690</v>
       </c>
     </row>
-    <row r="692" spans="1:1">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>62691</v>
       </c>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>62692</v>
       </c>
     </row>
-    <row r="694" spans="1:1">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>62693</v>
       </c>
     </row>
-    <row r="695" spans="1:1">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>62694</v>
       </c>
     </row>
-    <row r="696" spans="1:1">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>62695</v>
       </c>
     </row>
-    <row r="697" spans="1:1">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>62696</v>
       </c>
     </row>
-    <row r="698" spans="1:1">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>62697</v>
       </c>
     </row>
-    <row r="699" spans="1:1">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>62698</v>
       </c>
     </row>
-    <row r="700" spans="1:1">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>62699</v>
       </c>
     </row>
-    <row r="701" spans="1:1">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>62700</v>
       </c>
     </row>
-    <row r="702" spans="1:1">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>62701</v>
       </c>
     </row>
-    <row r="703" spans="1:1">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>62702</v>
       </c>
     </row>
-    <row r="704" spans="1:1">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>62703</v>
       </c>
     </row>
-    <row r="705" spans="1:1">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>62704</v>
       </c>
     </row>
-    <row r="706" spans="1:1">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>62705</v>
       </c>
     </row>
-    <row r="707" spans="1:1">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>62706</v>
       </c>
     </row>
-    <row r="708" spans="1:1">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>62707</v>
       </c>
     </row>
-    <row r="709" spans="1:1">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>62708</v>
       </c>
     </row>
-    <row r="710" spans="1:1">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>62709</v>
       </c>
     </row>
-    <row r="711" spans="1:1">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>62710</v>
       </c>
     </row>
-    <row r="712" spans="1:1">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>62711</v>
       </c>
     </row>
-    <row r="713" spans="1:1">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>62712</v>
       </c>
     </row>
-    <row r="714" spans="1:1">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>62713</v>
       </c>
     </row>
-    <row r="715" spans="1:1">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>62714</v>
       </c>
     </row>
-    <row r="716" spans="1:1">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>62715</v>
       </c>
     </row>
-    <row r="717" spans="1:1">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>62716</v>
       </c>
     </row>
-    <row r="718" spans="1:1">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>62717</v>
       </c>
     </row>
-    <row r="719" spans="1:1">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>62718</v>
       </c>
     </row>
-    <row r="720" spans="1:1">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>62719</v>
       </c>
     </row>
-    <row r="721" spans="1:1">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>62720</v>
       </c>
     </row>
-    <row r="722" spans="1:1">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>62721</v>
       </c>
     </row>
-    <row r="723" spans="1:1">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>62722</v>
       </c>
     </row>
-    <row r="724" spans="1:1">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>62723</v>
       </c>
     </row>
-    <row r="725" spans="1:1">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>62724</v>
       </c>
     </row>
-    <row r="726" spans="1:1">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>62725</v>
       </c>
     </row>
-    <row r="727" spans="1:1">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>62726</v>
       </c>
     </row>
-    <row r="728" spans="1:1">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>62727</v>
       </c>
     </row>
-    <row r="729" spans="1:1">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>62728</v>
       </c>
     </row>
-    <row r="730" spans="1:1">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>62729</v>
       </c>
     </row>
-    <row r="731" spans="1:1">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>62730</v>
       </c>
     </row>
-    <row r="732" spans="1:1">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>62731</v>
       </c>
     </row>
-    <row r="733" spans="1:1">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>62732</v>
       </c>
     </row>
-    <row r="734" spans="1:1">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>62733</v>
       </c>
     </row>
-    <row r="735" spans="1:1">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>62734</v>
       </c>
     </row>
-    <row r="736" spans="1:1">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>62735</v>
       </c>
     </row>
-    <row r="737" spans="1:1">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>62736</v>
       </c>
     </row>
-    <row r="738" spans="1:1">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>62737</v>
       </c>
     </row>
-    <row r="739" spans="1:1">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>62738</v>
       </c>
     </row>
-    <row r="740" spans="1:1">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>62739</v>
       </c>
     </row>
-    <row r="741" spans="1:1">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>62740</v>
       </c>
     </row>
-    <row r="742" spans="1:1">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>62741</v>
       </c>
     </row>
-    <row r="743" spans="1:1">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>62742</v>
       </c>
     </row>
-    <row r="744" spans="1:1">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>62743</v>
       </c>
     </row>
-    <row r="745" spans="1:1">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>62744</v>
       </c>
     </row>
-    <row r="746" spans="1:1">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>62745</v>
       </c>
     </row>
-    <row r="747" spans="1:1">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>62746</v>
       </c>
     </row>
-    <row r="748" spans="1:1">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>62747</v>
       </c>
     </row>
-    <row r="749" spans="1:1">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>62748</v>
       </c>
     </row>
-    <row r="750" spans="1:1">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>62749</v>
       </c>
     </row>
-    <row r="751" spans="1:1">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>62750</v>
       </c>
     </row>
-    <row r="752" spans="1:1">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>62751</v>
       </c>
     </row>
-    <row r="753" spans="1:1">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>62752</v>
       </c>
     </row>
-    <row r="754" spans="1:1">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>62753</v>
       </c>
     </row>
-    <row r="755" spans="1:1">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>62754</v>
       </c>
     </row>
-    <row r="756" spans="1:1">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>62755</v>
       </c>
     </row>
-    <row r="757" spans="1:1">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>62756</v>
       </c>
     </row>
-    <row r="758" spans="1:1">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>62757</v>
       </c>
     </row>
-    <row r="759" spans="1:1">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>62758</v>
       </c>
     </row>
-    <row r="760" spans="1:1">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>62759</v>
       </c>
     </row>
-    <row r="761" spans="1:1">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>62760</v>
       </c>
     </row>
-    <row r="762" spans="1:1">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>62761</v>
       </c>
     </row>
-    <row r="763" spans="1:1">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>62762</v>
       </c>
     </row>
-    <row r="764" spans="1:1">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>62763</v>
       </c>
     </row>
-    <row r="765" spans="1:1">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>62764</v>
       </c>
     </row>
-    <row r="766" spans="1:1">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>62765</v>
       </c>
     </row>
-    <row r="767" spans="1:1">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>62766</v>
       </c>
     </row>
-    <row r="768" spans="1:1">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>62767</v>
       </c>
     </row>
-    <row r="769" spans="1:1">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>62768</v>
       </c>
     </row>
-    <row r="770" spans="1:1">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>62769</v>
       </c>
     </row>
-    <row r="771" spans="1:1">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>62770</v>
       </c>
     </row>
-    <row r="772" spans="1:1">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>62771</v>
       </c>
     </row>
-    <row r="773" spans="1:1">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>62772</v>
       </c>
     </row>
-    <row r="774" spans="1:1">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>62773</v>
       </c>
     </row>
-    <row r="775" spans="1:1">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>62774</v>
       </c>
     </row>
-    <row r="776" spans="1:1">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>62775</v>
       </c>
     </row>
-    <row r="777" spans="1:1">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>62776</v>
       </c>
     </row>
-    <row r="778" spans="1:1">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>62777</v>
       </c>
     </row>
-    <row r="779" spans="1:1">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>62778</v>
       </c>
     </row>
-    <row r="780" spans="1:1">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>62779</v>
       </c>
     </row>
-    <row r="781" spans="1:1">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>62780</v>
       </c>
     </row>
-    <row r="782" spans="1:1">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>62781</v>
       </c>
     </row>
-    <row r="783" spans="1:1">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>62782</v>
       </c>
     </row>
-    <row r="784" spans="1:1">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>62783</v>
       </c>
     </row>
-    <row r="785" spans="1:1">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>62784</v>
       </c>
     </row>
-    <row r="786" spans="1:1">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>62785</v>
       </c>
     </row>
-    <row r="787" spans="1:1">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>62786</v>
       </c>
     </row>
-    <row r="788" spans="1:1">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>62787</v>
       </c>
     </row>
-    <row r="789" spans="1:1">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>62788</v>
       </c>
     </row>
-    <row r="790" spans="1:1">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>62789</v>
       </c>
     </row>
-    <row r="791" spans="1:1">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>62790</v>
       </c>
     </row>
-    <row r="792" spans="1:1">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>62791</v>
       </c>
     </row>
-    <row r="793" spans="1:1">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>62792</v>
       </c>
     </row>
-    <row r="794" spans="1:1">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>62793</v>
       </c>
     </row>
-    <row r="795" spans="1:1">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>62794</v>
       </c>
     </row>
-    <row r="796" spans="1:1">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>62795</v>
       </c>
     </row>
-    <row r="797" spans="1:1">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>62796</v>
       </c>
     </row>
-    <row r="798" spans="1:1">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>62797</v>
       </c>
     </row>
-    <row r="799" spans="1:1">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>62798</v>
       </c>
     </row>
-    <row r="800" spans="1:1">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>62799</v>
       </c>
     </row>
-    <row r="801" spans="1:1">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>62800</v>
       </c>
     </row>
-    <row r="802" spans="1:1">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>62801</v>
       </c>
     </row>
-    <row r="803" spans="1:1">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>62802</v>
       </c>
     </row>
-    <row r="804" spans="1:1">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>62803</v>
       </c>
     </row>
-    <row r="805" spans="1:1">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>62804</v>
       </c>
     </row>
-    <row r="806" spans="1:1">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>62805</v>
       </c>
     </row>
-    <row r="807" spans="1:1">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>62806</v>
       </c>
     </row>
-    <row r="808" spans="1:1">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>62807</v>
       </c>
     </row>
-    <row r="809" spans="1:1">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>62808</v>
       </c>
     </row>
-    <row r="810" spans="1:1">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>62809</v>
       </c>
     </row>
-    <row r="811" spans="1:1">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>62810</v>
       </c>
     </row>
-    <row r="812" spans="1:1">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>62811</v>
       </c>
     </row>
-    <row r="813" spans="1:1">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>62812</v>
       </c>
     </row>
-    <row r="814" spans="1:1">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>62813</v>
       </c>
     </row>
-    <row r="815" spans="1:1">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>62814</v>
       </c>
     </row>
-    <row r="816" spans="1:1">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>62815</v>
       </c>
     </row>
-    <row r="817" spans="1:1">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>62816</v>
       </c>
     </row>
-    <row r="818" spans="1:1">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>62817</v>
       </c>
     </row>
-    <row r="819" spans="1:1">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>62818</v>
       </c>
     </row>
-    <row r="820" spans="1:1">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>62819</v>
       </c>
     </row>
-    <row r="821" spans="1:1">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>62820</v>
       </c>
     </row>
-    <row r="822" spans="1:1">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>62821</v>
       </c>
     </row>
-    <row r="823" spans="1:1">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>62822</v>
       </c>
     </row>
-    <row r="824" spans="1:1">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>62823</v>
       </c>
     </row>
-    <row r="825" spans="1:1">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>62824</v>
       </c>
     </row>
-    <row r="826" spans="1:1">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>62825</v>
       </c>
     </row>
-    <row r="827" spans="1:1">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>62826</v>
       </c>
     </row>
-    <row r="828" spans="1:1">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>62827</v>
       </c>
     </row>
-    <row r="829" spans="1:1">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>62828</v>
       </c>
     </row>
-    <row r="830" spans="1:1">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>62829</v>
       </c>
     </row>
-    <row r="831" spans="1:1">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>62830</v>
       </c>
     </row>
-    <row r="832" spans="1:1">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>62831</v>
       </c>
     </row>
-    <row r="833" spans="1:1">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>62832</v>
       </c>
     </row>
-    <row r="834" spans="1:1">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>62833</v>
       </c>
     </row>
-    <row r="835" spans="1:1">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>62834</v>
       </c>
     </row>
-    <row r="836" spans="1:1">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>62835</v>
       </c>
     </row>
-    <row r="837" spans="1:1">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>62836</v>
       </c>
     </row>
-    <row r="838" spans="1:1">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>62837</v>
       </c>
     </row>
-    <row r="839" spans="1:1">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>62838</v>
       </c>
     </row>
-    <row r="840" spans="1:1">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>62839</v>
       </c>
     </row>
-    <row r="841" spans="1:1">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>62840</v>
       </c>
     </row>
-    <row r="842" spans="1:1">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>62841</v>
       </c>
     </row>
-    <row r="843" spans="1:1">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>62842</v>
       </c>
     </row>
-    <row r="844" spans="1:1">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>62843</v>
       </c>
     </row>
-    <row r="845" spans="1:1">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>62844</v>
       </c>
     </row>
-    <row r="846" spans="1:1">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>62845</v>
       </c>
     </row>
-    <row r="847" spans="1:1">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>62846</v>
       </c>
     </row>
-    <row r="848" spans="1:1">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>62847</v>
       </c>
     </row>
-    <row r="849" spans="1:1">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>62848</v>
       </c>
     </row>
-    <row r="850" spans="1:1">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>62849</v>
       </c>
     </row>
-    <row r="851" spans="1:1">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>62850</v>
       </c>
     </row>
-    <row r="852" spans="1:1">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>62851</v>
       </c>
     </row>
-    <row r="853" spans="1:1">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>62852</v>
       </c>
     </row>
-    <row r="854" spans="1:1">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>62853</v>
       </c>
     </row>
-    <row r="855" spans="1:1">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>62854</v>
       </c>
     </row>
-    <row r="856" spans="1:1">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>62855</v>
       </c>
     </row>
-    <row r="857" spans="1:1">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>62856</v>
       </c>
     </row>
-    <row r="858" spans="1:1">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>62857</v>
       </c>
     </row>
-    <row r="859" spans="1:1">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>62858</v>
       </c>
     </row>
-    <row r="860" spans="1:1">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>62859</v>
       </c>
     </row>
-    <row r="861" spans="1:1">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>62860</v>
       </c>
     </row>
-    <row r="862" spans="1:1">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>62861</v>
       </c>
     </row>
-    <row r="863" spans="1:1">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>62862</v>
       </c>
     </row>
-    <row r="864" spans="1:1">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>62863</v>
       </c>
     </row>
-    <row r="865" spans="1:1">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>62864</v>
       </c>
     </row>
-    <row r="866" spans="1:1">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>62865</v>
       </c>
     </row>
-    <row r="867" spans="1:1">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>62866</v>
       </c>
     </row>
-    <row r="868" spans="1:1">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>62867</v>
       </c>
     </row>
-    <row r="869" spans="1:1">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>62868</v>
       </c>
     </row>
-    <row r="870" spans="1:1">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>62869</v>
       </c>
     </row>
-    <row r="871" spans="1:1">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>62870</v>
       </c>
     </row>
-    <row r="872" spans="1:1">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>62871</v>
       </c>
     </row>
-    <row r="873" spans="1:1">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>62872</v>
       </c>
     </row>
-    <row r="874" spans="1:1">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>62873</v>
       </c>
     </row>
-    <row r="875" spans="1:1">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>62874</v>
       </c>
     </row>
-    <row r="876" spans="1:1">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>62875</v>
       </c>
     </row>
-    <row r="877" spans="1:1">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>62876</v>
       </c>
     </row>
-    <row r="878" spans="1:1">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>62877</v>
       </c>
     </row>
-    <row r="879" spans="1:1">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>62878</v>
       </c>
     </row>
-    <row r="880" spans="1:1">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>62879</v>
       </c>
     </row>
-    <row r="881" spans="1:1">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>62880</v>
       </c>
     </row>
-    <row r="882" spans="1:1">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>62881</v>
       </c>
     </row>
-    <row r="883" spans="1:1">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>62882</v>
       </c>
     </row>
-    <row r="884" spans="1:1">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>62883</v>
       </c>
     </row>
-    <row r="885" spans="1:1">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>62884</v>
       </c>
     </row>
-    <row r="886" spans="1:1">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>62885</v>
       </c>
     </row>
-    <row r="887" spans="1:1">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>62886</v>
       </c>
     </row>
-    <row r="888" spans="1:1">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>62887</v>
       </c>
     </row>
-    <row r="889" spans="1:1">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>62888</v>
       </c>
     </row>
-    <row r="890" spans="1:1">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>62889</v>
       </c>
     </row>
-    <row r="891" spans="1:1">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>62890</v>
       </c>
     </row>
-    <row r="892" spans="1:1">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>62891</v>
       </c>
     </row>
-    <row r="893" spans="1:1">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>62892</v>
       </c>
     </row>
-    <row r="894" spans="1:1">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>62893</v>
       </c>
     </row>
-    <row r="895" spans="1:1">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>62894</v>
       </c>
     </row>
-    <row r="896" spans="1:1">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>62895</v>
       </c>
     </row>
-    <row r="897" spans="1:1">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>62896</v>
       </c>
     </row>
-    <row r="898" spans="1:1">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>62897</v>
       </c>
     </row>
-    <row r="899" spans="1:1">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>62898</v>
       </c>
     </row>
-    <row r="900" spans="1:1">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>62899</v>
       </c>
     </row>
-    <row r="901" spans="1:1">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>62900</v>
       </c>
     </row>
-    <row r="902" spans="1:1">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>62901</v>
       </c>
     </row>
-    <row r="903" spans="1:1">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>62902</v>
       </c>
     </row>
-    <row r="904" spans="1:1">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>62903</v>
       </c>
     </row>
-    <row r="905" spans="1:1">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>62904</v>
       </c>
     </row>
-    <row r="906" spans="1:1">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>62905</v>
       </c>
     </row>
-    <row r="907" spans="1:1">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>62906</v>
       </c>
     </row>
-    <row r="908" spans="1:1">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>62907</v>
       </c>
     </row>
-    <row r="909" spans="1:1">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>62908</v>
       </c>
     </row>
-    <row r="910" spans="1:1">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>62909</v>
       </c>
     </row>
-    <row r="911" spans="1:1">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>62910</v>
       </c>
     </row>
-    <row r="912" spans="1:1">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>62911</v>
       </c>
     </row>
-    <row r="913" spans="1:1">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>62912</v>
       </c>
     </row>
-    <row r="914" spans="1:1">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>62913</v>
       </c>
     </row>
-    <row r="915" spans="1:1">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>62914</v>
       </c>
     </row>
-    <row r="916" spans="1:1">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>62915</v>
       </c>
     </row>
-    <row r="917" spans="1:1">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>62916</v>
       </c>
     </row>
-    <row r="918" spans="1:1">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>62917</v>
       </c>
     </row>
-    <row r="919" spans="1:1">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>62918</v>
       </c>
     </row>
-    <row r="920" spans="1:1">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>62919</v>
       </c>
     </row>
-    <row r="921" spans="1:1">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>62920</v>
       </c>
     </row>
-    <row r="922" spans="1:1">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>62921</v>
       </c>
     </row>
-    <row r="923" spans="1:1">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>62922</v>
       </c>
     </row>
-    <row r="924" spans="1:1">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>62923</v>
       </c>
     </row>
-    <row r="925" spans="1:1">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>62924</v>
       </c>
     </row>
-    <row r="926" spans="1:1">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>62925</v>
       </c>
     </row>
-    <row r="927" spans="1:1">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>62926</v>
       </c>
     </row>
-    <row r="928" spans="1:1">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>62927</v>
       </c>
     </row>
-    <row r="929" spans="1:1">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>62928</v>
       </c>
     </row>
-    <row r="930" spans="1:1">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>62929</v>
       </c>
     </row>
-    <row r="931" spans="1:1">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>62930</v>
       </c>
     </row>
-    <row r="932" spans="1:1">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>62931</v>
       </c>
     </row>
-    <row r="933" spans="1:1">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>62932</v>
       </c>
     </row>
-    <row r="934" spans="1:1">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>62933</v>
       </c>
     </row>
-    <row r="935" spans="1:1">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>62934</v>
       </c>
     </row>
-    <row r="936" spans="1:1">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>62935</v>
       </c>
     </row>
-    <row r="937" spans="1:1">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>62936</v>
       </c>
     </row>
-    <row r="938" spans="1:1">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>62937</v>
       </c>
     </row>
-    <row r="939" spans="1:1">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>62938</v>
       </c>
     </row>
-    <row r="940" spans="1:1">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>62939</v>
       </c>
     </row>
-    <row r="941" spans="1:1">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>62940</v>
       </c>
     </row>
-    <row r="942" spans="1:1">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>62941</v>
       </c>
     </row>
-    <row r="943" spans="1:1">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>62942</v>
       </c>
     </row>
-    <row r="944" spans="1:1">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>62943</v>
       </c>
     </row>
-    <row r="945" spans="1:1">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>62944</v>
       </c>
     </row>
-    <row r="946" spans="1:1">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>62945</v>
       </c>
     </row>
-    <row r="947" spans="1:1">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>62946</v>
       </c>
     </row>
-    <row r="948" spans="1:1">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>62947</v>
       </c>
     </row>
-    <row r="949" spans="1:1">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>62948</v>
       </c>
     </row>
-    <row r="950" spans="1:1">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>62949</v>
       </c>
     </row>
-    <row r="951" spans="1:1">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>62950</v>
       </c>
     </row>
-    <row r="952" spans="1:1">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>62951</v>
       </c>
     </row>
-    <row r="953" spans="1:1">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>62952</v>
       </c>
     </row>
-    <row r="954" spans="1:1">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>62953</v>
       </c>
     </row>
-    <row r="955" spans="1:1">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>62954</v>
       </c>
     </row>
-    <row r="956" spans="1:1">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>62955</v>
       </c>
     </row>
-    <row r="957" spans="1:1">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>62956</v>
       </c>
     </row>
-    <row r="958" spans="1:1">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>62957</v>
       </c>
     </row>
-    <row r="959" spans="1:1">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>62958</v>
       </c>
     </row>
-    <row r="960" spans="1:1">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>62959</v>
       </c>
     </row>
-    <row r="961" spans="1:1">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>62960</v>
       </c>
     </row>
-    <row r="962" spans="1:1">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>62961</v>
       </c>
     </row>
-    <row r="963" spans="1:1">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>62962</v>
       </c>
     </row>
-    <row r="964" spans="1:1">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>62963</v>
       </c>
     </row>
-    <row r="965" spans="1:1">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>62964</v>
       </c>
     </row>
-    <row r="966" spans="1:1">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>62965</v>
       </c>
     </row>
-    <row r="967" spans="1:1">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>62966</v>
       </c>
     </row>
-    <row r="968" spans="1:1">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>62967</v>
       </c>
     </row>
-    <row r="969" spans="1:1">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>62968</v>
       </c>
     </row>
-    <row r="970" spans="1:1">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>62969</v>
       </c>
     </row>
-    <row r="971" spans="1:1">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>62970</v>
       </c>
     </row>
-    <row r="972" spans="1:1">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>62971</v>
       </c>
     </row>
-    <row r="973" spans="1:1">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>62972</v>
       </c>
     </row>
-    <row r="974" spans="1:1">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>62973</v>
       </c>
     </row>
-    <row r="975" spans="1:1">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>62974</v>
       </c>
     </row>
-    <row r="976" spans="1:1">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>62975</v>
       </c>
     </row>
-    <row r="977" spans="1:1">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>62976</v>
       </c>
     </row>
-    <row r="978" spans="1:1">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>62977</v>
       </c>
     </row>
-    <row r="979" spans="1:1">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>62978</v>
       </c>
     </row>
-    <row r="980" spans="1:1">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>62979</v>
       </c>
     </row>
-    <row r="981" spans="1:1">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>62980</v>
       </c>
     </row>
-    <row r="982" spans="1:1">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>62981</v>
       </c>
     </row>
-    <row r="983" spans="1:1">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>62982</v>
       </c>
     </row>
-    <row r="984" spans="1:1">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>62983</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/1.xlsx
+++ b/app/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Flask\hrci_back\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66005C9A-811E-4658-A33C-D1837A24F3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7619552-9370-485A-8E91-CBC4E52B5E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>middleYear</t>
+    <t>lateYear</t>
   </si>
 </sst>
 </file>
@@ -397,17 +397,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>61000</v>
+        <v>62000</v>
       </c>
       <c r="B1">
         <v>2562</v>
@@ -419,1204 +419,564 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>61001</v>
+        <v>62001</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>61002</v>
+        <v>62002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>61003</v>
+        <v>62003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>61004</v>
+        <v>62004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>61005</v>
+        <v>62005</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>61006</v>
+        <v>62006</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>61007</v>
+        <v>62007</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>61008</v>
+        <v>62008</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>61009</v>
+        <v>62009</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>61010</v>
+        <v>62010</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>61011</v>
+        <v>62011</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>61012</v>
+        <v>62012</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>61013</v>
+        <v>62013</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>61014</v>
+        <v>62014</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>61015</v>
+        <v>62015</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>61016</v>
+        <v>62016</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>61017</v>
+        <v>62017</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>61018</v>
+        <v>62018</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>61019</v>
+        <v>62019</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>61020</v>
+        <v>62020</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>61021</v>
+        <v>62021</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>61022</v>
+        <v>62022</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>61023</v>
+        <v>62023</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>61024</v>
+        <v>62024</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>61025</v>
+        <v>62025</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>61026</v>
+        <v>62026</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>61027</v>
+        <v>62027</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>61028</v>
+        <v>62028</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>61029</v>
+        <v>62029</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>61030</v>
+        <v>62030</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>61031</v>
+        <v>62031</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>61032</v>
+        <v>62032</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>61033</v>
+        <v>62033</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>61034</v>
+        <v>62034</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>61035</v>
+        <v>62035</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>61036</v>
+        <v>62036</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>61037</v>
+        <v>62037</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>61038</v>
+        <v>62038</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>61039</v>
+        <v>62039</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>61040</v>
+        <v>62040</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>61041</v>
+        <v>62041</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>61042</v>
+        <v>62042</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>61043</v>
+        <v>62043</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>61044</v>
+        <v>62044</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>61045</v>
+        <v>62045</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>61046</v>
+        <v>62046</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>61047</v>
+        <v>62047</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>61048</v>
+        <v>62048</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>61049</v>
+        <v>62049</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>61050</v>
+        <v>62050</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>61051</v>
+        <v>62051</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>61052</v>
+        <v>62052</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>61053</v>
+        <v>62053</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>61054</v>
+        <v>62054</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>61055</v>
+        <v>62055</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>61056</v>
+        <v>62056</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>61057</v>
+        <v>62057</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>61058</v>
+        <v>62058</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>61059</v>
+        <v>62059</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>61060</v>
+        <v>62060</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61061</v>
+        <v>62061</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>61062</v>
+        <v>62062</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>61063</v>
+        <v>62063</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>61064</v>
+        <v>62064</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>61065</v>
+        <v>62065</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>61066</v>
+        <v>62066</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>61067</v>
+        <v>62067</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>61068</v>
+        <v>62068</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>61069</v>
+        <v>62069</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>61070</v>
+        <v>62070</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>61071</v>
+        <v>62071</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>61072</v>
+        <v>62072</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>61073</v>
+        <v>62073</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>61074</v>
+        <v>62074</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>61075</v>
+        <v>62075</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>61076</v>
+        <v>62076</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>61077</v>
+        <v>62077</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>61078</v>
+        <v>62078</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>61079</v>
+        <v>62079</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>61080</v>
+        <v>62080</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>61081</v>
+        <v>62081</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>61082</v>
+        <v>62082</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>61083</v>
+        <v>62083</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>61084</v>
+        <v>62084</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>61085</v>
+        <v>62085</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>61086</v>
+        <v>62086</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>61087</v>
+        <v>62087</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>61088</v>
+        <v>62088</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>61089</v>
+        <v>62089</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>61090</v>
+        <v>62090</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>61091</v>
+        <v>62091</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>61092</v>
+        <v>62092</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>61093</v>
+        <v>62093</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>61094</v>
+        <v>62094</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>61095</v>
+        <v>62095</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>61096</v>
+        <v>62096</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>61097</v>
+        <v>62097</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>61098</v>
+        <v>62098</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>61099</v>
+        <v>62099</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>61100</v>
+        <v>62100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>61101</v>
+        <v>62101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>61102</v>
+        <v>62102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>61103</v>
+        <v>62103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>61104</v>
+        <v>62104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>61105</v>
+        <v>62105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>61106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>61107</v>
+        <v>62106</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>61108</v>
+        <v>62108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>61109</v>
+        <v>62109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>61110</v>
+        <v>62110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>61111</v>
+        <v>62111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>61112</v>
+        <v>62112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>61113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>61114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>61115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>61116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>61117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>61118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>61119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>61120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>61121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>61122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>61123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>61124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>61125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>61126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>61127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>61128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>61129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>61130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>61131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>61132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>61133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>61134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>61135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>61136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>61137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>61138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>61139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>61140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>61141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>61142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>61143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>61144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>61145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>61146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>61147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>61148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>61149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>61150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>61151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>61152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>61153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>61154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>61155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>61156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>61157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>61158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>61159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>61160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>61161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>61162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>61163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>61164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>61165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>61166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>61167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>61168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>61169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>61170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>61171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>61172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>61173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>61174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>61175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>61176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>61177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>61178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>61179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>61180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>61181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>61182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>61183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>61184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>61185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>61186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>61187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>61188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>61189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>61190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>61191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>61192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>61193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>61194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>61195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>61196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>61197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>61198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>61199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>61200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>61201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>61202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>61203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>61204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>61205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>61206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>61207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>61208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>61209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>61210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>61211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>61212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>61213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>61214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>61215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>61216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>61217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>61218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>61219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>61220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>61221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>61222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>61223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>61224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>61225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>61226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>61227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>61228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>61229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>61230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>61231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>61232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>61233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>61234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>61235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>61236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>61237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>61238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>61239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>61240</v>
+        <v>62113</v>
       </c>
     </row>
   </sheetData>

--- a/app/1.xlsx
+++ b/app/1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Flask\hrci_back\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7619552-9370-485A-8E91-CBC4E52B5E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6B0608-8703-42B4-9586-422792E2AC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,9 +28,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>lateYear</t>
+  </si>
+  <si>
+    <t>60068</t>
+  </si>
+  <si>
+    <t>61426</t>
+  </si>
+  <si>
+    <t>60100</t>
+  </si>
+  <si>
+    <t>60169</t>
+  </si>
+  <si>
+    <t>61423</t>
+  </si>
+  <si>
+    <t>61496</t>
+  </si>
+  <si>
+    <t>60313</t>
+  </si>
+  <si>
+    <t>18016</t>
+  </si>
+  <si>
+    <t>OC2261074</t>
+  </si>
+  <si>
+    <t>TD20180001</t>
+  </si>
+  <si>
+    <t>TD20190001</t>
+  </si>
+  <si>
+    <t>IM1460182</t>
+  </si>
+  <si>
+    <t>19056</t>
+  </si>
+  <si>
+    <t>61084</t>
+  </si>
+  <si>
+    <t>61296</t>
+  </si>
+  <si>
+    <t>62877</t>
+  </si>
+  <si>
+    <t>62288</t>
+  </si>
+  <si>
+    <t>62770</t>
+  </si>
+  <si>
+    <t>61290</t>
+  </si>
+  <si>
+    <t>NP961201</t>
+  </si>
+  <si>
+    <t>CM2962253</t>
+  </si>
+  <si>
+    <t>TM660004</t>
+  </si>
+  <si>
+    <t>62574</t>
+  </si>
+  <si>
+    <t>62390</t>
+  </si>
+  <si>
+    <t>IG461269</t>
+  </si>
+  <si>
+    <t>60043</t>
+  </si>
+  <si>
+    <t>62101</t>
+  </si>
+  <si>
+    <t>19036</t>
+  </si>
+  <si>
+    <t>61372</t>
+  </si>
+  <si>
+    <t>60411</t>
+  </si>
+  <si>
+    <t>i25570001</t>
+  </si>
+  <si>
+    <t>TD20160011</t>
+  </si>
+  <si>
+    <t>IM1455007</t>
+  </si>
+  <si>
+    <t>IG460003</t>
+  </si>
+  <si>
+    <t>IM1456131</t>
+  </si>
+  <si>
+    <t>IM1457047</t>
+  </si>
+  <si>
+    <t>IB1060157</t>
+  </si>
+  <si>
+    <t>58172</t>
+  </si>
+  <si>
+    <t>61521</t>
+  </si>
+  <si>
+    <t>19012</t>
+  </si>
+  <si>
+    <t>TM661028</t>
+  </si>
+  <si>
+    <t>TM662008</t>
+  </si>
+  <si>
+    <t>IG460002</t>
+  </si>
+  <si>
+    <t>61448</t>
+  </si>
+  <si>
+    <t>AG2362004</t>
+  </si>
+  <si>
+    <t>TM662007</t>
+  </si>
+  <si>
+    <t>SC3360118</t>
+  </si>
+  <si>
+    <t>CM2962002</t>
+  </si>
+  <si>
+    <t>AG2361034</t>
+  </si>
+  <si>
+    <t>AG2362001</t>
+  </si>
+  <si>
+    <t>NP961003</t>
+  </si>
+  <si>
+    <t>NP961002</t>
+  </si>
+  <si>
+    <t>NP961004</t>
+  </si>
+  <si>
+    <t>OB1861072</t>
+  </si>
+  <si>
+    <t>19053</t>
+  </si>
+  <si>
+    <t>19060</t>
+  </si>
+  <si>
+    <t>OC2261001</t>
+  </si>
+  <si>
+    <t>SC3360173</t>
+  </si>
+  <si>
+    <t>61354</t>
+  </si>
+  <si>
+    <t>OB1862156</t>
+  </si>
+  <si>
+    <t>61086</t>
+  </si>
+  <si>
+    <t>IB1061576</t>
   </si>
 </sst>
 </file>
@@ -41,7 +227,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -399,15 +585,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>62000</v>
+      <c r="A1" t="s">
+        <v>1</v>
       </c>
       <c r="B1">
         <v>2562</v>
@@ -418,567 +604,363 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>62001</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>62002</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>62003</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>62004</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>62005</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>62006</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>62007</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>62008</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>62009</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>62010</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>62011</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>62012</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>62013</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>62014</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>62015</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>62016</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>62017</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>62018</v>
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>62019</v>
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>62020</v>
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>62021</v>
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>62022</v>
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>62023</v>
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>62024</v>
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>62025</v>
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>62026</v>
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>62027</v>
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>62028</v>
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>62029</v>
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>62030</v>
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>62031</v>
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>62032</v>
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>62033</v>
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>62034</v>
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>62035</v>
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>62036</v>
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>62037</v>
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>62038</v>
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>62039</v>
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>62040</v>
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>62041</v>
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>62042</v>
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>62043</v>
+      <c r="A44" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>62044</v>
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>62045</v>
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>62046</v>
+      <c r="A47" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>62047</v>
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>62048</v>
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>62049</v>
+      <c r="A50" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>62050</v>
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>62051</v>
+      <c r="A52" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>62052</v>
+      <c r="A53" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>62053</v>
+      <c r="A54" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>62054</v>
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>62055</v>
+      <c r="A56" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>62056</v>
+      <c r="A57" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>62057</v>
+      <c r="A58" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>62058</v>
+      <c r="A59" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>62059</v>
+      <c r="A60" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>62060</v>
+      <c r="A61" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>62061</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62062</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>62063</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>62064</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>62065</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>62066</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>62067</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>62068</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>62069</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>62070</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>62071</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>62072</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>62073</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>62074</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>62075</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>62076</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>62077</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>62078</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>62079</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>62080</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>62081</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>62082</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>62083</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>62084</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>62085</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>62086</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>62087</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>62088</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>62089</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>62090</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>62091</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>62092</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>62093</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>62094</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>62095</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>62096</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>62097</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>62098</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>62099</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>62100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>62101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>62102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>62103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>62104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>62105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>62106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>62108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>62109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>62110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>62111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>62112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>62113</v>
-      </c>
-    </row>
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="65" x14ac:dyDescent="0.25"/>
+    <row r="66" x14ac:dyDescent="0.25"/>
+    <row r="67" x14ac:dyDescent="0.25"/>
+    <row r="68" x14ac:dyDescent="0.25"/>
+    <row r="69" x14ac:dyDescent="0.25"/>
+    <row r="70" x14ac:dyDescent="0.25"/>
+    <row r="71" x14ac:dyDescent="0.25"/>
+    <row r="72" x14ac:dyDescent="0.25"/>
+    <row r="73" x14ac:dyDescent="0.25"/>
+    <row r="74" x14ac:dyDescent="0.25"/>
+    <row r="75" x14ac:dyDescent="0.25"/>
+    <row r="76" x14ac:dyDescent="0.25"/>
+    <row r="77" x14ac:dyDescent="0.25"/>
+    <row r="78" x14ac:dyDescent="0.25"/>
+    <row r="79" x14ac:dyDescent="0.25"/>
+    <row r="80" x14ac:dyDescent="0.25"/>
+    <row r="81" x14ac:dyDescent="0.25"/>
+    <row r="82" x14ac:dyDescent="0.25"/>
+    <row r="83" x14ac:dyDescent="0.25"/>
+    <row r="84" x14ac:dyDescent="0.25"/>
+    <row r="85" x14ac:dyDescent="0.25"/>
+    <row r="86" x14ac:dyDescent="0.25"/>
+    <row r="87" x14ac:dyDescent="0.25"/>
+    <row r="88" x14ac:dyDescent="0.25"/>
+    <row r="89" x14ac:dyDescent="0.25"/>
+    <row r="90" x14ac:dyDescent="0.25"/>
+    <row r="91" x14ac:dyDescent="0.25"/>
+    <row r="92" x14ac:dyDescent="0.25"/>
+    <row r="93" x14ac:dyDescent="0.25"/>
+    <row r="94" x14ac:dyDescent="0.25"/>
+    <row r="95" x14ac:dyDescent="0.25"/>
+    <row r="96" x14ac:dyDescent="0.25"/>
+    <row r="97" x14ac:dyDescent="0.25"/>
+    <row r="98" x14ac:dyDescent="0.25"/>
+    <row r="99" x14ac:dyDescent="0.25"/>
+    <row r="100" x14ac:dyDescent="0.25"/>
+    <row r="101" x14ac:dyDescent="0.25"/>
+    <row r="102" x14ac:dyDescent="0.25"/>
+    <row r="103" x14ac:dyDescent="0.25"/>
+    <row r="104" x14ac:dyDescent="0.25"/>
+    <row r="105" x14ac:dyDescent="0.25"/>
+    <row r="106" x14ac:dyDescent="0.25"/>
+    <row r="107" x14ac:dyDescent="0.25"/>
+    <row r="109" x14ac:dyDescent="0.25"/>
+    <row r="110" x14ac:dyDescent="0.25"/>
+    <row r="111" x14ac:dyDescent="0.25"/>
+    <row r="112" x14ac:dyDescent="0.25"/>
+    <row r="113" x14ac:dyDescent="0.25"/>
+    <row r="114" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/app/1.xlsx
+++ b/app/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HRCI\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6B0608-8703-42B4-9586-422792E2AC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339DE58-0674-4DBA-AA36-B4ADF8E68D23}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>lateYear</t>
   </si>
@@ -217,6 +217,141 @@
   </si>
   <si>
     <t>IB1061576</t>
+  </si>
+  <si>
+    <t>61142</t>
+  </si>
+  <si>
+    <t>60179</t>
+  </si>
+  <si>
+    <t>61198</t>
+  </si>
+  <si>
+    <t>61555</t>
+  </si>
+  <si>
+    <t>TM661011</t>
+  </si>
+  <si>
+    <t>D20170004</t>
+  </si>
+  <si>
+    <t>OLS759181</t>
+  </si>
+  <si>
+    <t>19011</t>
+  </si>
+  <si>
+    <t>61089</t>
+  </si>
+  <si>
+    <t>60097</t>
+  </si>
+  <si>
+    <t>60202</t>
+  </si>
+  <si>
+    <t>60369</t>
+  </si>
+  <si>
+    <t>60336</t>
+  </si>
+  <si>
+    <t>58171</t>
+  </si>
+  <si>
+    <t>OB1818019</t>
+  </si>
+  <si>
+    <t>OB1861429</t>
+  </si>
+  <si>
+    <t>OLS760415</t>
+  </si>
+  <si>
+    <t>OLS760279</t>
+  </si>
+  <si>
+    <t>OLS762002</t>
+  </si>
+  <si>
+    <t>IM1458168</t>
+  </si>
+  <si>
+    <t>IM1461064</t>
+  </si>
+  <si>
+    <t>IM1459010</t>
+  </si>
+  <si>
+    <t>IM1459240</t>
+  </si>
+  <si>
+    <t>AC1260129</t>
+  </si>
+  <si>
+    <t>61037</t>
+  </si>
+  <si>
+    <t>61187</t>
+  </si>
+  <si>
+    <t>61188</t>
+  </si>
+  <si>
+    <t>61214</t>
+  </si>
+  <si>
+    <t>IM1460204</t>
+  </si>
+  <si>
+    <t>60177</t>
+  </si>
+  <si>
+    <t>60105</t>
+  </si>
+  <si>
+    <t>19026</t>
+  </si>
+  <si>
+    <t>AC1259227</t>
+  </si>
+  <si>
+    <t>IM1458094</t>
+  </si>
+  <si>
+    <t>60242</t>
+  </si>
+  <si>
+    <t>61335</t>
+  </si>
+  <si>
+    <t>61348</t>
+  </si>
+  <si>
+    <t>61371</t>
+  </si>
+  <si>
+    <t>61394</t>
+  </si>
+  <si>
+    <t>61585</t>
+  </si>
+  <si>
+    <t>TM661006</t>
+  </si>
+  <si>
+    <t>OLS760161</t>
+  </si>
+  <si>
+    <t>IM1461013</t>
+  </si>
+  <si>
+    <t>IM1462019</t>
+  </si>
+  <si>
+    <t>19055</t>
   </si>
 </sst>
 </file>
@@ -227,7 +362,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -271,7 +406,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -287,7 +422,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -585,11 +720,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -910,55 +1045,235 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="65" x14ac:dyDescent="0.25"/>
-    <row r="66" x14ac:dyDescent="0.25"/>
-    <row r="67" x14ac:dyDescent="0.25"/>
-    <row r="68" x14ac:dyDescent="0.25"/>
-    <row r="69" x14ac:dyDescent="0.25"/>
-    <row r="70" x14ac:dyDescent="0.25"/>
-    <row r="71" x14ac:dyDescent="0.25"/>
-    <row r="72" x14ac:dyDescent="0.25"/>
-    <row r="73" x14ac:dyDescent="0.25"/>
-    <row r="74" x14ac:dyDescent="0.25"/>
-    <row r="75" x14ac:dyDescent="0.25"/>
-    <row r="76" x14ac:dyDescent="0.25"/>
-    <row r="77" x14ac:dyDescent="0.25"/>
-    <row r="78" x14ac:dyDescent="0.25"/>
-    <row r="79" x14ac:dyDescent="0.25"/>
-    <row r="80" x14ac:dyDescent="0.25"/>
-    <row r="81" x14ac:dyDescent="0.25"/>
-    <row r="82" x14ac:dyDescent="0.25"/>
-    <row r="83" x14ac:dyDescent="0.25"/>
-    <row r="84" x14ac:dyDescent="0.25"/>
-    <row r="85" x14ac:dyDescent="0.25"/>
-    <row r="86" x14ac:dyDescent="0.25"/>
-    <row r="87" x14ac:dyDescent="0.25"/>
-    <row r="88" x14ac:dyDescent="0.25"/>
-    <row r="89" x14ac:dyDescent="0.25"/>
-    <row r="90" x14ac:dyDescent="0.25"/>
-    <row r="91" x14ac:dyDescent="0.25"/>
-    <row r="92" x14ac:dyDescent="0.25"/>
-    <row r="93" x14ac:dyDescent="0.25"/>
-    <row r="94" x14ac:dyDescent="0.25"/>
-    <row r="95" x14ac:dyDescent="0.25"/>
-    <row r="96" x14ac:dyDescent="0.25"/>
-    <row r="97" x14ac:dyDescent="0.25"/>
-    <row r="98" x14ac:dyDescent="0.25"/>
-    <row r="99" x14ac:dyDescent="0.25"/>
-    <row r="100" x14ac:dyDescent="0.25"/>
-    <row r="101" x14ac:dyDescent="0.25"/>
-    <row r="102" x14ac:dyDescent="0.25"/>
-    <row r="103" x14ac:dyDescent="0.25"/>
-    <row r="104" x14ac:dyDescent="0.25"/>
-    <row r="105" x14ac:dyDescent="0.25"/>
-    <row r="106" x14ac:dyDescent="0.25"/>
-    <row r="107" x14ac:dyDescent="0.25"/>
-    <row r="109" x14ac:dyDescent="0.25"/>
-    <row r="110" x14ac:dyDescent="0.25"/>
-    <row r="111" x14ac:dyDescent="0.25"/>
-    <row r="112" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="113" x14ac:dyDescent="0.25"/>
     <row r="114" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/app/1.xlsx
+++ b/app/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339DE58-0674-4DBA-AA36-B4ADF8E68D23}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8517C61-D7FE-4B7E-A9E4-C182FF10E03D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,17 +718,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:A107"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
+      <c r="A1">
+        <v>59254</v>
       </c>
       <c r="B1">
         <v>2562</v>
@@ -736,546 +734,541 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="113" x14ac:dyDescent="0.25"/>
-    <row r="114" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
